--- a/Dataset/Naive RAG/Mia/Session1/Annotator0.xlsx
+++ b/Dataset/Naive RAG/Mia/Session1/Annotator0.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hi! I'm Mia.i'm glad to meet you.I'm in the second grade in kyoto univerisity,majoring in Economics. I'm Japanese.</t>
+          <t>Hi! I'm Mia.i'm glad to meet you.I'm in the second grade in Doshisha Universityverisity,majoring in Economics. I'm Japanese.</t>
         </is>
       </c>
     </row>
